--- a/tinystories/story_evaluations.xlsx
+++ b/tinystories/story_evaluations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>evaluation</t>
+          <t>Commonsense Reasoning</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Grammar &amp; Fluency</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Coherence</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Evaluation</t>
         </is>
       </c>
     </row>
@@ -451,22 +466,23 @@
           <t>Once upon a time, in an ancient house, there lived a girl named Lily. She loved to decorate her room with pretty things. One day, she found a big box in the attic. She opened it and saw many shiny decorations. Lily was very happy and decided to use them in her room. As Lily was decorating her room, the sky outside became dark. There was a loud thunderclap and a bright flash of lightning. Lily was a little scared, but she knew she had to be brave. She told her mom and dad, and they all went outside to see what was going on. When they got outside, they saw a big storm coming. The wind was blowing hard, and the rain was pouring down. Lily, her mom, and her dad knew they had to find a safe place to hide. They found a big tree and hid under it. The storm passed, and the sun came out again. Lily, her mom, and her dad were all safe and warm inside their ancient house</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1. **Coherence**: 7/10
-   - The story has a clear sequence of events starting with Lily finding a box in the attic, decorating her room, experiencing a storm, and then finding safety. However, the transition between decorating and the storm feels abrupt and could be smoother.
-2. **Grammar &amp; Fluency**: 8/10
-   - The grammar is mostly correct, and the language is simple and easy to read. There are a few minor issues, such as "told her mom and dad" which could be improved to "told her mom and dad about it." Additionally, "hid under it" isn't the safest advice during a storm; considering "sought shelter" might be better.
-3. **Commonsense Reasoning**: 6/10
-   - The characters' actions mostly make sense but hiding under a tree during a storm is not safe. Common sense would suggest seeking shelter inside the house or another sturdy building, rather than under a tree, which can attract lightning.
-4. **Engagement**: 6/10
-   - The story has some engaging elements, such as the discovery of the decorations and the ensuing storm. However, it lacks deeper character development or more suspenseful moments that could make it more engaging.
-Overall Score:
-- Coherence: 7/10
-- Grammar &amp; Fluency: 8/10
-- Commonsense Reasoning: 6/10
-- Engagement: 6/10
-Overall, the story is straightforward and easy to follow but could be improved with better transitions, more accurate safety advice, and richer character development.</t>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1. **Coherence: 7/10**  
+   The story has a simple, linear progression with a clear beginning, middle, and end. It starts with Lily finding decorations in an attic and ends with her and her family's encounter with and survival from a storm. However, the transition from decorating the room to dealing with the storm feels somewhat abrupt, and the resolution (hiding under a tree during a storm) isn't clearly connected back to the initial setup of the story.
+2. **Grammar &amp; Fluency: 8/10**  
+   The grammar is mostly correct, and the story is easy to read. Sentences are straightforward and convey the intended meaning clearly. However, the sentence structure is quite simple, and more complex sentences or varied sentence structure could enhance the fluency and make the narrative more engaging.
+3. **Commonsense Reasoning: 5/10**  
+   The characters' actions in the story are mostly reasonable initially. However, the decision to hide under a tree during a thunderstorm is a critical flaw, as it’s commonly known to be unsafe due to the risk of lightning strikes. This detracts from the story's realism and could send a misleading message to readers about appropriate storm safety behavior.</t>
         </is>
       </c>
     </row>
